--- a/biology/Botanique/Spartina_alterniflora/Spartina_alterniflora.xlsx
+++ b/biology/Botanique/Spartina_alterniflora/Spartina_alterniflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spartine à feuilles alternes, Spartine alterniflore
-Spartina alterniflora, la spartine à feuilles alternes, est une espèce de plante à fleurs de la famille des Poaceae, de la sous-famille des Chloridoideae, originaire de la côte est des États-Unis. C'est une plante envahissante en Europe et en Chine (Shanghai)[1].
+Spartina alterniflora, la spartine à feuilles alternes, est une espèce de plante à fleurs de la famille des Poaceae, de la sous-famille des Chloridoideae, originaire de la côte est des États-Unis. C'est une plante envahissante en Europe et en Chine (Shanghai).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La spartine à feuilles alternes, pousse un peu comme du chiendent, faisant 40 à 50 cm de haut au stade feuillu, et jusqu'à 1 m en floraison.
 </t>
@@ -543,9 +557,11 @@
           <t>Espèce envahissante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spartina alterniflora aurait été introduite en 1836 dans le port de Southampton en Angleterre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spartina alterniflora aurait été introduite en 1836 dans le port de Southampton en Angleterre.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Spartine à feuilles alternes colonise les zones littorales vaseuses au niveau de l'estran, le slikke. Elle supporte l'immersion quotidienne et se développe en cercle, par ses rhizomes.
-Ses peuplements denses monospécifiques modifient radicalement le biotope. Dans la rade de Brest, elle menace de disparition la Petite statice (Limonium humile)[1].
+Ses peuplements denses monospécifiques modifient radicalement le biotope. Dans la rade de Brest, elle menace de disparition la Petite statice (Limonium humile).
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spartina alterniflora s'hybride avec l'espèce européenne, la Spartine maritime, Spartina maritima, pour former un hybride Spartina ×townsendii plus résistant. De plus, Spartina ×townsendii a produit par doublement chromosomique une nouvelle forme nommée Spartina anglica dont la vitalité met en péril la biodiversité des sites qu'elle colonise[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spartina alterniflora s'hybride avec l'espèce européenne, la Spartine maritime, Spartina maritima, pour former un hybride Spartina ×townsendii plus résistant. De plus, Spartina ×townsendii a produit par doublement chromosomique une nouvelle forme nommée Spartina anglica dont la vitalité met en péril la biodiversité des sites qu'elle colonise.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, elle est utilisée en phytoremédiation.
 </t>
